--- a/docs/hrir_datasets.xlsx
+++ b/docs/hrir_datasets.xlsx
@@ -20,12 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+  <si>
+    <t xml:space="preserve">Dataset</t>
   </si>
   <si>
     <t xml:space="preserve">Reference</t>
@@ -34,7 +31,7 @@
     <t xml:space="preserve">License</t>
   </si>
   <si>
-    <t xml:space="preserve">Neumann KU 100 (SADIE)</t>
+    <t xml:space="preserve">SADIE</t>
   </si>
   <si>
     <t xml:space="preserve">Armstrong, Cal, Lewis Thresh, Damian Murphy, and Gavin Kearney. 2018. "A Perceptual Evaluation of Individual and Non-Individual HRTFs: A Case Study of the SADIE II Database" Applied Sciences 8, no. 11: 2029. https://doi.org/10.3390/app8112029</t>
@@ -43,7 +40,7 @@
     <t xml:space="preserve">Licensed under the Apache License, Version 2.0</t>
   </si>
   <si>
-    <t xml:space="preserve">Neumann KU 100 (TH Köln)</t>
+    <t xml:space="preserve">THK</t>
   </si>
   <si>
     <t xml:space="preserve">Benjamin Bernschütz (2020) ‘Spherical Far-Field HRIR Compilation of the Neumann KU100’. 39th DAGA (AIA-DAGA), Zenodo. doi: 10.5281/zenodo.3928297.</t>
@@ -52,7 +49,7 @@
     <t xml:space="preserve">Creative Commons Attribution 3.0 Unported</t>
   </si>
   <si>
-    <t xml:space="preserve">FABIAN HATS</t>
+    <t xml:space="preserve">TU-BERLIN</t>
   </si>
   <si>
     <t xml:space="preserve">Brinkmann, Fabian &amp; Lindau, Alexander &amp; Weinzierl, Stefan &amp; Geissler, Gunnar &amp; Par, Steven &amp; Müller-Trapet, Markus &amp; Opdam, Rob &amp; Vorlaender, Michael. (2017). The FABIAN head-related transfer function data base. 10.14279/depositonce-5718. </t>
@@ -61,7 +58,7 @@
     <t xml:space="preserve">Creative Commons Attribution 4.0 International</t>
   </si>
   <si>
-    <t xml:space="preserve">B&amp;K Type 4128</t>
+    <t xml:space="preserve">B&amp;K-4128</t>
   </si>
   <si>
     <t xml:space="preserve">Ahrens, A. (2018). Binaural Impulse Responses with and without HTC Vive HMD [Data set]. Zenodo. https://doi.org/10.5281/zenodo.1185335</t>
@@ -71,22 +68,13 @@
 Creative Commons Attribution 4.0 International</t>
   </si>
   <si>
-    <t xml:space="preserve">B&amp;K Type 4128C (MMHR-HRIR)</t>
+    <t xml:space="preserve">MMHR</t>
   </si>
   <si>
     <t xml:space="preserve">Thiemann, J., &amp; van de Par, S. (2020). A multiple model high-resolution head-related impulse response database for aided and unaided ears (SOFA format) [Data set]. In EURASIP Journal on Advances in Signal Processing (1.3.1, Vol. 2019, Number 9). Zenodo. https://doi.org/10.5281/zenodo.3767044</t>
   </si>
   <si>
-    <t xml:space="preserve">DADEC (MMHR-HRIR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HEAD acoustics HMSII.2 (MMHR-HRIR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KEMAR (MMHR-HRIR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KEMAR-N (MIT)</t>
+    <t xml:space="preserve">MIT</t>
   </si>
   <si>
     <t xml:space="preserve">Gardner, B., &amp; Martin, K. (1994). HRTF Measurements of a KEMAR Dummy-Head Microphone. Retrieved from https://sound.media.mit.edu/resources/KEMAR.html </t>
@@ -95,13 +83,7 @@
     <t xml:space="preserve">This data is Copyright 1994 by the MIT Media Laboratory. It is provided free with no restrictions on use, provided the authors are cited when the data is used in any research or commercial application.</t>
   </si>
   <si>
-    <t xml:space="preserve">KEMAR-L (MIT)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KEMAR (SADIE)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KEMAR-N (PKU-IOA)</t>
+    <t xml:space="preserve">PKU-IOA</t>
   </si>
   <si>
     <t xml:space="preserve">T. Qu, Z. Xiao, M. Gong, Y. Huang, X. Li and X. Wu, "Distance-Dependent Head-Related Transfer Functions Measured With High Spatial Resolution Using a Spark Gap," in IEEE Transactions on Audio, Speech, and Language Processing, vol. 17, no. 6, pp. 1124-1132, Aug. 2009, doi: 10.1109/TASL.2009.2020532.</t>
@@ -110,7 +92,76 @@
     <t xml:space="preserve">Copyright by the Key Lab of Machine Perception (Ministry of Education), Peking University. It is provided free with no restrictions on research use, provided the authors are cited when the data is used. And it is forbidden to be used in any commercial application.</t>
   </si>
   <si>
-    <t xml:space="preserve">KEMAR-L (PKU-IOA)</t>
+    <t xml:space="preserve">AXD (KEMAR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engel, Isaac; Daugintis, Rapolas; Vicente, Thibault; Hogg, Aidan O. T.; Pauwels, Johan; Tournier, Arnaud J.; Picinali, Lorenzo; The SONICOM HRTF Dataset [PDF]; Audio Experience Design (www.axdesign.co.uk), Imperial College London, London, United Kingdom; Paper ; 2023 Available: https://aes2.org/publications/elibrary-page/?id=22128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xie, B. et al. (2013), “Report on Research Projects on Head-Related Transfer Functions and Virtual Auditory Displays in China,” Journal of the Audio Engineering Society (61) 5, pages 314-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C. Pörschmann, J. M. Arendand R. Gillioz, ‘Spherical Headgear HRIR Compilation of the Neumann KU100 and the Head acoustics HMS II.3’. Zenodo, Jul. 02, 2020. doi: 10.5281/zenodo.3928465.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIKING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simone Spagnol, Riccardo Micciniand Runar Unnthorsson, ‘The Viking HRTF dataset v2’. Zenodo, Oct. 30, 2020. doi: 10.5281/zenodo.4160401.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3D3A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sridhar, R., Tylka, J.G. and Choueiri, E.Y., 2017. A database of head-related transfer function and morphological measurements. In 143rd Audio Engineering Society Convention 2017.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARI HRTF database. HRTF-database.. https://www.oeaw.ac.at/isf/das-institut/software/hrtf-database </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIT license.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiLi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rio, E. LISTEN HRTF DATABASE. http://recherche.ircam.fr/equipes/salles/listen/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crossmod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUTUBS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brinkmann, Fabian; Dinakaran, Manoj; Pelzer, Robert; Grosche, Peter; Voss, Daniel; Weinzierl, Stefan; A Cross-Evaluated Database of Measured and Simulated HRTFs Including 3D Head Meshes, Anthropometric Features, and Headphone Impulse Responses [PDF]; Audio Communication Group, Technical University of Berlin, Germany;Audio Communication Group, Technical University of Berlin, Germany;Audio Communication Group, Technical University of Berlin, Germany;Huawei Technologies, Munich Research Centre, Munich, Germany;Sennheiser electronic GmbH &amp; Co. KG, Wedemark, Germany;Audio Communication Group, Technical University of Berlin, Germany; Paper ; 2019 Available: https://aes2.org/publications/elibrary-page/?id=20546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K. Watanabe, Y. Iwaya, Y. Suzuki, S. Takane, and S. Sato, "Dataset of head-related transfer functions measured with a circular loudspeaker array," Acoust. Sci. &amp; Tech. 35(3), 159 – 165(2014)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copyright © 2013 by Advanced Acoustic Information Systems Laboratory, Research Institute of Electrical Communication, Tohoku University. All rights reserved.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sound Sphere 2 database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warnecke, M., Clapp, S., Ben-Hur, Z., Lou Alon, D., V. Amengual Garí, S., &amp; Calamia, P. (2024). Sound Sphere 2: A High-resolution HRTF Database. 2024 AES 5th International Conference on Audio for Virtual and Augmented Reality.</t>
   </si>
 </sst>
 </file>
@@ -206,24 +257,24 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -415,216 +466,255 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="113.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="79.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="38.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="113.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="79.27"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
-        <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
-        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
-        <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
-        <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="36.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="36.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
-        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="36.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="36.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
-        <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>12</v>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="36.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
-        <v>7</v>
+      <c r="A8" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="36.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
-        <v>8</v>
+        <v>21</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="36.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
-        <v>9</v>
+        <v>24</v>
+      </c>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="36.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+      <c r="C15" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" customFormat="false" ht="71" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="36.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="36.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
+    </row>
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1" display="Engel, Isaac; Daugintis, Rapolas; Vicente, Thibault; Hogg, Aidan O. T.; Pauwels, Johan; Tournier, Arnaud J.; Picinali, Lorenzo; The SONICOM HRTF Dataset [PDF]; Audio Experience Design (www.axdesign.co.uk), Imperial College London, London, United Kingdom; Paper ; 2023 Available: https://aes2.org/publications/elibrary-page/?id=22128"/>
+    <hyperlink ref="B15" r:id="rId2" display="Engel, Isaac; Daugintis, Rapolas; Vicente, Thibault; Hogg, Aidan O. T.; Pauwels, Johan; Tournier, Arnaud J.; Picinali, Lorenzo; The SONICOM HRTF Dataset [PDF]; Audio Experience Design (www.axdesign.co.uk), Imperial College London, London, United Kingdom; Paper ; 2023 Available: https://aes2.org/publications/elibrary-page/?id=22128"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
